--- a/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>58,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>162,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-71,93%</t>
+          <t>89,45%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,15</t>
+          <t>-2,52; 10,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,6</t>
+          <t>-4,57; 5,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,25</t>
+          <t>0,16; 8,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -0,46</t>
+          <t>-1,23; 6,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 78,29</t>
+          <t>-28,58; 265,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 249,74</t>
+          <t>-57,33; 156,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,53; 152,61</t>
+          <t>-12,8; 1038,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,58</t>
+          <t>-46,32; 857,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>-16,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>162,6%</t>
+          <t>-11,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>-71,93%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 10,43</t>
+          <t>-3,72; 2,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,34</t>
+          <t>-2,26; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,56</t>
+          <t>-2,62; 2,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 6,17</t>
+          <t>-7,11; -0,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 265,15</t>
+          <t>-64,69; 78,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 156,58</t>
+          <t>-66,8; 249,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 1038,43</t>
+          <t>-70,53; 152,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 857,28</t>
+          <t>-100,0; -4,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,12 +620,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,27 +635,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>112,19%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>26,57%</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 25,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 17,02</t>
+          <t>0,0; 56,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>162,6%</t>
+          <t>275,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,45%</t>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 10,43</t>
+          <t>-5,78; 8,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 5,34</t>
+          <t>-5,44; 6,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,56</t>
+          <t>0,3; 11,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 6,17</t>
+          <t>-3,32; 5,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 265,15</t>
+          <t>-60,33; 241,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 156,58</t>
+          <t>-71,01; 294,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 1038,43</t>
+          <t>-60,59; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 857,28</t>
+          <t>-89,18; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>66,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-71,93%</t>
+          <t>-15,39%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,15</t>
+          <t>-4,15; 7,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,6</t>
+          <t>-1,72; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,25</t>
+          <t>-3,98; 3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,11; -0,46</t>
+          <t>-4,2; 3,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 78,29</t>
+          <t>-49,0; 193,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 249,74</t>
+          <t>-37,87; 375,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,53; 152,61</t>
+          <t>-70,16; 148,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,58</t>
+          <t>-80,64; 185,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>-35,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>79,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-34,6%</t>
+          <t>-72,23%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,63</t>
+          <t>-2,48; 3,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 2,87</t>
+          <t>-3,93; 1,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,49</t>
+          <t>-1,74; 4,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,9</t>
+          <t>-9,29; 0,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 112,01</t>
+          <t>-62,65; 219,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,37; 104,03</t>
+          <t>-91,97; 154,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 224,81</t>
+          <t>-72,83; 921,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,78; 50,92</t>
+          <t>-100,0; 72,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>44,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-34,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 2,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 3,41</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 0,83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-31,27; 99,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-37,51; 107,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,0; 180,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-75,45; 48,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,02</t>
+          <t>0,0; 58,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 8,55</t>
+          <t>-4,94; 8,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 6,45</t>
+          <t>-5,02; 6,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 11,45</t>
+          <t>0,06; 10,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,15</t>
+          <t>-3,34; 5,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 241,17</t>
+          <t>-54,32; 268,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 294,43</t>
+          <t>-72,88; 250,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-60,59; —</t>
+          <t>-52,98; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,18; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 7,17</t>
+          <t>-4,26; 7,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 7,55</t>
+          <t>-1,98; 6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,36</t>
+          <t>-4,19; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 3,58</t>
+          <t>-3,97; 4,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,0; 193,61</t>
+          <t>-47,73; 200,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 375,25</t>
+          <t>-43,51; 364,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,16; 148,8</t>
+          <t>-70,2; 156,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-80,64; 185,82</t>
+          <t>-78,28; 238,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,34</t>
+          <t>-2,71; 3,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,69</t>
+          <t>-3,84; 1,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,7</t>
+          <t>-1,53; 4,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 0,11</t>
+          <t>-8,71; 0,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,65; 219,06</t>
+          <t>-70,09; 226,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-91,97; 154,32</t>
+          <t>-86,78; 193,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,83; 921,21</t>
+          <t>-66,04; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 72,77</t>
+          <t>-100,0; 61,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,63</t>
+          <t>-1,66; 3,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,96</t>
+          <t>-1,82; 2,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,41</t>
+          <t>-0,97; 3,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,83</t>
+          <t>-4,48; 0,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 99,03</t>
+          <t>-27,37; 106,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 107,76</t>
+          <t>-38,76; 107,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 180,0</t>
+          <t>-29,85; 185,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 48,2</t>
+          <t>-76,71; 46,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C08-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que en su última visita al dentista fue por selladores, aplicación de fluor</t>
+          <t>Menores que en su última visita al dentista fue por selladores, aplicación de flúor</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,72</t>
+          <t>13,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,34</t>
+          <t>0,0; 52,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>37,09%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 8,65</t>
+          <t>-5,51; 8,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 6,14</t>
+          <t>-5,08; 6,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,76</t>
+          <t>0,15; 10,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,54</t>
+          <t>-3,06; 5,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,32; 268,38</t>
+          <t>-54,03; 260,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,88; 250,46</t>
+          <t>-70,41; 276,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,98; —</t>
+          <t>-66,3; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,39%</t>
+          <t>-14,8%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 7,52</t>
+          <t>-4,41; 7,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 6,88</t>
+          <t>-1,6; 6,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 3,21</t>
+          <t>-4,1; 3,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,04</t>
+          <t>-3,99; 3,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,73; 200,94</t>
+          <t>-47,01; 207,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 364,97</t>
+          <t>-38,52; 388,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,2; 156,63</t>
+          <t>-69,17; 140,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,28; 238,57</t>
+          <t>-81,14; 198,42</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-72,23%</t>
+          <t>-72,85%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,26</t>
+          <t>-2,56; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,84</t>
+          <t>-4,35; 1,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,81</t>
+          <t>-1,55; 4,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,07</t>
+          <t>-8,76; 0,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 226,22</t>
+          <t>-67,29; 187,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,78; 193,93</t>
+          <t>-88,61; 154,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,04; —</t>
+          <t>-68,22; 934,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 61,45</t>
+          <t>-100,0; 47,97</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-34,6%</t>
+          <t>-34,5%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,92</t>
+          <t>-1,57; 3,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,85</t>
+          <t>-2,2; 2,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,22</t>
+          <t>-0,98; 3,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,87</t>
+          <t>-4,59; 0,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,37; 106,34</t>
+          <t>-27,65; 112,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 107,98</t>
+          <t>-43,37; 104,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 185,81</t>
+          <t>-29,56; 224,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-76,71; 46,01</t>
+          <t>-78,35; 48,89</t>
         </is>
       </c>
     </row>
